--- a/results/evaluated_exclude.xlsx
+++ b/results/evaluated_exclude.xlsx
@@ -486,36 +486,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6338</t>
+          <t>0.6303</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.6721</t>
+          <t>0.682</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.6491</t>
+          <t>0.6512</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.626</t>
+          <t>0.6247</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6886</t>
+          <t>0.6904</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.6535</t>
+          <t>0.6533</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>-0.0043</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="3">
@@ -529,36 +529,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.807</t>
+          <t>0.7985</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.7281</t>
+          <t>0.7426</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.7641</t>
+          <t>0.7679</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.8007</t>
+          <t>0.7938</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7398</t>
+          <t>0.7491</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.7672</t>
+          <t>0.7687</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>-0.0032</v>
+        <v>-0.0008</v>
       </c>
     </row>
     <row r="4">
@@ -572,36 +572,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.7235</t>
+          <t>0.7209</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.6194</t>
+          <t>0.6178</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.6631</t>
+          <t>0.6635</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.7296</t>
+          <t>0.7292</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5767</t>
+          <t>0.5802</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.6379</t>
+          <t>0.6407</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.0252</v>
+        <v>0.0228</v>
       </c>
     </row>
     <row r="5">
@@ -615,36 +615,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.7955</t>
+          <t>0.7921</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.889</t>
+          <t>0.8965</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.8394</t>
+          <t>0.8408</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.7975</t>
+          <t>0.7954</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8849</t>
+          <t>0.8889</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.8386</t>
+          <t>0.8392</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.0008</v>
+        <v>0.0016</v>
       </c>
     </row>
   </sheetData>
